--- a/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_aws_linux/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_aws_linux/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_aws_linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913F5A6F-B84F-F647-BF5E-A3F404D07452}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D4279-4E81-4514-A371-71C55E612810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="9140" windowWidth="35560" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27180" yWindow="2136" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,9 @@
   <si>
     <t>StartZoneConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -523,13 +526,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
@@ -652,6 +655,9 @@
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13">
@@ -670,7 +676,9 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -691,7 +699,9 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -712,7 +722,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
